--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57550.06211730475</v>
+        <v>11363570.20591334</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57550.06211730475</v>
+        <v>11363570.20591334</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2112.483571989703</v>
+        <v>332851.9629114295</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2112.483571989703</v>
+        <v>332851.9629114295</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266394835.497637</v>
+        <v>52421702.93337673</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11130.8415593995</v>
+        <v>1247545.659657341</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20932.00107004517</v>
+        <v>2286531.717931731</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30733.16058069083</v>
+        <v>3325517.776206123</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40562.6029196193</v>
+        <v>4364503.834480514</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50392.04525854778</v>
+        <v>5403489.892754906</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60220.80939675104</v>
+        <v>6442438.532198717</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70049.84481524437</v>
+        <v>7481424.590473103</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79878.88023373773</v>
+        <v>8520410.648747491</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89728.53074310762</v>
+        <v>9550554.167591097</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99571.58638892267</v>
+        <v>10591017.70684176</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109400.621807416</v>
+        <v>11630003.76511615</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119229.6572259093</v>
+        <v>12668989.82339055</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129058.6926444026</v>
+        <v>13707975.88166494</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139003.9164470755</v>
+        <v>14690645.84357159</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149113.6809482357</v>
+        <v>15672326.05377937</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>380</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
